--- a/Bảng phân công công việc-Nhóm 3.xlsx
+++ b/Bảng phân công công việc-Nhóm 3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Dự án : Phần mềm Ví điện tử- WiibuPay</t>
   </si>
@@ -115,13 +115,13 @@
     <t>WP11</t>
   </si>
   <si>
-    <t>Kiểm tra phần mềm, viết test case</t>
+    <t>Tổng kiểm thử phần mềm, Document (Viết test case, bổ sung hình ảnh phần mềm, bảng)</t>
   </si>
   <si>
     <t>WP12</t>
   </si>
   <si>
-    <t>Vẽ use case model</t>
+    <t>Vẽ use case diagram</t>
   </si>
   <si>
     <t>WP13</t>
@@ -133,10 +133,13 @@
     <t>WP14</t>
   </si>
   <si>
-    <t>Viết Document (bìa, giới thiệu, mục lục, từ viết tắt, tóm tắt, kết luận)</t>
+    <t>Viết Document (bìa, toàn bộ phần giới thiệu, mục lục, từ viết tắt, tóm tắt, kết luận)</t>
   </si>
   <si>
     <t>WP15</t>
+  </si>
+  <si>
+    <t>Viết Document ( cơ sở lý thuyết, phân tích bài toán, tư liệu tham khảo)</t>
   </si>
   <si>
     <t>Tên</t>
@@ -158,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -167,6 +170,8 @@
     <font>
       <b/>
       <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -174,7 +179,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <name val="Arial"/>
@@ -185,10 +198,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -196,10 +209,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -247,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,9 +277,12 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -284,19 +297,19 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -520,7 +533,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="21.43"/>
     <col customWidth="1" min="2" max="2" width="8.29"/>
-    <col customWidth="1" min="3" max="3" width="63.14"/>
+    <col customWidth="1" min="3" max="3" width="73.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -551,233 +564,239 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9"/>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10"/>
     </row>
     <row r="12">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9"/>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="10"/>
     </row>
     <row r="17">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14"/>
     </row>
     <row r="19">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="14"/>
     </row>
     <row r="20">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="12"/>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14"/>
     </row>
     <row r="22">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="14"/>
     </row>
     <row r="23">
@@ -809,66 +828,66 @@
       <c r="F26" s="14"/>
     </row>
     <row r="27">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>43</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28">
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>1.0</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="C28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="17">
         <v>1.0</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29">
-      <c r="B29" s="7">
+      <c r="B29" s="12">
         <v>2.0</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="17">
+      <c r="C29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="18">
         <v>1.0</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30">
-      <c r="B30" s="7">
+      <c r="B30" s="12">
         <v>3.0</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="C30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="18">
         <v>1.0</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
     <row r="31">
-      <c r="B31" s="7"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32">
-      <c r="B32" s="7"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>

--- a/Bảng phân công công việc-Nhóm 3.xlsx
+++ b/Bảng phân công công việc-Nhóm 3.xlsx
@@ -121,7 +121,7 @@
     <t>WP12</t>
   </si>
   <si>
-    <t>Vẽ use case diagram</t>
+    <t>Vẽ use case diagram, flowchart</t>
   </si>
   <si>
     <t>WP13</t>

--- a/Bảng phân công công việc-Nhóm 3.xlsx
+++ b/Bảng phân công công việc-Nhóm 3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Dự án : Phần mềm Ví điện tử- WiibuPay</t>
   </si>
@@ -76,7 +76,7 @@
     <t>WP5</t>
   </si>
   <si>
-    <t>Tra cứu số dư tài khoản, lịch sử giao dịch</t>
+    <t>Tra cứu số dư tài khoản, lịch sử giao dịch, tạo báo cáo gửi tiền, báo cáo rút tiền</t>
   </si>
   <si>
     <t>WP6</t>
@@ -88,7 +88,7 @@
     <t>WP7</t>
   </si>
   <si>
-    <t>Tạo báo cáo (Báo cáo tiền gửi, báo cáo rút tiền, báo cáo chuyển khoản)</t>
+    <t>Tạo báo cáo (Báo cáo chuyển khoản)</t>
   </si>
   <si>
     <t>Tông</t>
@@ -97,7 +97,7 @@
     <t>WP8</t>
   </si>
   <si>
-    <t>Manage user accounts (create new account, suspended)</t>
+    <t>Manage user accounts (create new account, suspended), login cho admins và users</t>
   </si>
   <si>
     <t>WP9</t>
@@ -121,7 +121,7 @@
     <t>WP12</t>
   </si>
   <si>
-    <t>Vẽ use case diagram</t>
+    <t>Vẽ use case diagram, flowchart</t>
   </si>
   <si>
     <t>WP13</t>
@@ -142,6 +142,9 @@
     <t>Viết Document ( cơ sở lý thuyết, phân tích bài toán, tư liệu tham khảo)</t>
   </si>
   <si>
+    <t>Tỉ lệ hoàn thành công việc được giao</t>
+  </si>
+  <si>
     <t>Tên</t>
   </si>
   <si>
@@ -155,6 +158,9 @@
   </si>
   <si>
     <t>Quản Đức Lộc</t>
+  </si>
+  <si>
+    <t>Tỉ lệ đóng góp trong bài</t>
   </si>
 </sst>
 </file>
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,6 +312,9 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -314,6 +323,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,6 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -822,20 +835,22 @@
     </row>
     <row r="26">
       <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>44</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -845,9 +860,9 @@
         <v>1.0</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="17">
+        <v>46</v>
+      </c>
+      <c r="D28" s="18">
         <v>1.0</v>
       </c>
       <c r="E28" s="14"/>
@@ -858,9 +873,9 @@
         <v>2.0</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="18">
+        <v>47</v>
+      </c>
+      <c r="D29" s="19">
         <v>1.0</v>
       </c>
       <c r="E29" s="14"/>
@@ -871,9 +886,9 @@
         <v>3.0</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="18">
+        <v>48</v>
+      </c>
+      <c r="D30" s="19">
         <v>1.0</v>
       </c>
       <c r="E30" s="14"/>
@@ -887,13 +902,62 @@
       <c r="F31" s="14"/>
     </row>
     <row r="32">
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="20"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
+    <row r="33">
+      <c r="B33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>